--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,97 +40,118 @@
     <t>name</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>war</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -139,12 +160,12 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -163,115 +184,148 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>amp</t>
   </si>
   <si>
     <t>shopping</t>
@@ -632,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -751,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8047945205479452</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,16 +1026,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7391304347826086</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7297297297297297</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,31 +1273,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L13">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L13">
-        <v>65</v>
-      </c>
-      <c r="M13">
-        <v>65</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.68</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6538461538461539</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5608465608465608</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.559322033898305</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.7441860465116279</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5581395348837209</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C18">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.7421875</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.725</v>
+        <v>0.7578125</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5294117647058824</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4871794871794872</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.696969696969697</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.475</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4630872483221476</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.6411764705882353</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1855,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4516129032258064</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.6033898305084746</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>117</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.44</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.602510460251046</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4054054054054054</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.5846153846153846</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +2005,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3571428571428572</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2055,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3454545454545455</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2073,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2051,13 +2105,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3090909090909091</v>
+        <v>0.4375</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2698412698412698</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C31">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.5600000000000001</v>
+        <v>0.6135593220338983</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2666666666666667</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,19 +2223,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.5319148936170213</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2255,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2467532467532468</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.5280898876404494</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2251,13 +2305,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1447721179624665</v>
+        <v>0.375</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2269,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>319</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.5111111111111111</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2293,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2301,13 +2355,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.08666666666666667</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2319,19 +2373,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.5098039215686274</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2343,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2351,37 +2405,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0146551724137931</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1143</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2393,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2401,37 +2455,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01032591158438206</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3067</v>
+        <v>56</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.4848484848484849</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2443,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2451,37 +2505,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01029962546816479</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2114</v>
+        <v>66</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.4047619047619048</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2493,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2501,179 +2555,633 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005045726900031536</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C39">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <v>65</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>187</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39">
+        <v>0.52</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.25</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>60</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.1501340482573726</v>
+      </c>
+      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>56</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>317</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>275</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L42">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>24</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.01452081316553727</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>0.15</v>
+      </c>
+      <c r="F43">
+        <v>0.85</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3054</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.01120689655172414</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1147</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44">
+        <v>0.359375</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.01078293483356775</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>0.3</v>
+      </c>
+      <c r="F45">
+        <v>0.7</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2110</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>24</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.004724409448818898</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <v>0.63</v>
+      </c>
+      <c r="F46">
+        <v>0.37</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3160</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L46">
+        <v>19</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>0.2982456140350877</v>
+      </c>
+      <c r="L47">
+        <v>17</v>
+      </c>
+      <c r="M47">
+        <v>17</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>22</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51">
+        <v>0.1056910569105691</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
+      </c>
+      <c r="M51">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>0.93</v>
+      </c>
+      <c r="O51">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L52">
         <v>16</v>
       </c>
-      <c r="D39">
-        <v>46</v>
-      </c>
-      <c r="E39">
-        <v>0.65</v>
-      </c>
-      <c r="F39">
-        <v>0.35</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>3155</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="L39">
-        <v>23</v>
-      </c>
-      <c r="M39">
-        <v>23</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.2950819672131147</v>
-      </c>
-      <c r="L40">
-        <v>18</v>
-      </c>
-      <c r="M40">
-        <v>18</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="L41">
-        <v>23</v>
-      </c>
-      <c r="M41">
-        <v>23</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.1284403669724771</v>
-      </c>
-      <c r="L42">
+      <c r="M52">
+        <v>16</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53">
+        <v>0.04011461318051576</v>
+      </c>
+      <c r="L53">
         <v>14</v>
       </c>
-      <c r="M42">
+      <c r="M53">
         <v>14</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54">
         <v>0.03125</v>
       </c>
-      <c r="L43">
+      <c r="L54">
         <v>13</v>
       </c>
-      <c r="M43">
+      <c r="M54">
         <v>13</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44">
-        <v>0.009419152276295133</v>
-      </c>
-      <c r="L44">
-        <v>30</v>
-      </c>
-      <c r="M44">
-        <v>46</v>
-      </c>
-      <c r="N44">
-        <v>0.65</v>
-      </c>
-      <c r="O44">
-        <v>0.35</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3155</v>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55">
+        <v>0.008160703075957313</v>
+      </c>
+      <c r="L55">
+        <v>26</v>
+      </c>
+      <c r="M55">
+        <v>41</v>
+      </c>
+      <c r="N55">
+        <v>0.63</v>
+      </c>
+      <c r="O55">
+        <v>0.37</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3160</v>
       </c>
     </row>
   </sheetData>
